--- a/biology/Zoologie/Buyina_yeatesi/Buyina_yeatesi.xlsx
+++ b/biology/Zoologie/Buyina_yeatesi/Buyina_yeatesi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Buyina yeatesi est une espèce d'araignées aranéomorphes de la famille des Desidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Buyina yeatesi est une espèce d'araignées aranéomorphes de la famille des Desidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Queensland en Australie[1]. Elle se rencontre dans la chaîne Malbon Thompson.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Queensland en Australie. Elle se rencontre dans la chaîne Malbon Thompson.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace de la femelle holotype mesure 4,0 mm de long sur 3,0 mm de large et l'abdomen 4,3 mm de long sur 3,1 mm de large. La carapace du mâle paratype mesure 3,3 mm de long sur 2,3 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace de la femelle holotype mesure 4,0 mm de long sur 3,0 mm de large et l'abdomen 4,3 mm de long sur 3,1 mm de large. La carapace du mâle paratype mesure 3,3 mm de long sur 2,3 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de David Keith Yeates[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de David Keith Yeates.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Davies, 1998 : A revision of the Australian metaltellines (Araneae: Amaurobioidea: Amphinectidae: Metaltellinae). Invertebrate Taxonomy, vol. 12, no 2, p. 211-243.</t>
         </is>
